--- a/biology/Zoologie/Gloydius_blomhoffii/Gloydius_blomhoffii.xlsx
+++ b/biology/Zoologie/Gloydius_blomhoffii/Gloydius_blomhoffii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gloydius blomhoffii est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gloydius blomhoffii est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Corée du Nord ;
 en Corée du Sud ;
 au Japon, sauf dans les îles Ryūkyū où il n'existe pour l'instant pas de preuve de sa présence ;
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gloydius blomhoffii est un serpent venimeux qui mesure en moyenne 50 cm mais les plus grands spécimens atteignent jusqu'à 90 cm. Son dos est gris-beige avec le larges anneaux brun-ocre. Cette espèce se nourrit d'oiseaux et de rongeurs.
 </t>
@@ -577,9 +593,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (16 sept. 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (16 sept. 2011) :
 Gloydius blomhoffii blomhoffii (Boie, 1826)
 Gloydius blomhoffii dubitatus (Gloyd, 1977) - République populaire de Chine</t>
         </is>
@@ -609,7 +627,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jan Cock Blomhoff, la personne ayant collecté le spécimen ayant servi à la description.
 </t>
@@ -640,7 +660,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boie, 1826 : Merkmale einiger japanischer Lurche. Isis von Oken, vol. 19, p. 203-216 (texte intégral).
 Gloyd, 1977 : Descriptions of new taxa of crotalid snakes from China and Ceylon (Sri Lanka). Proceedings of the Biological Society of Washington, vol. 90, no 4, p. 1002-1015 (texte intégral).</t>
